--- a/pred_ohlcv/54_21/2019-11-01 DAD ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-01 DAD ohlcv.xlsx
@@ -574,7 +574,7 @@
         <v>93664.42549675994</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>144496.3797967599</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>185370.9724011999</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>206473.6694725079</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>203425.3041725079</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>212089.0170513399</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>231699.1278513399</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>273790.3404755919</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>303077.9837784909</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>287432.0561720789</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>254314.7313657549</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>265901.9068771729</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>265082.615777173</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>346558.707076724</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>398646.40788183</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -990,7 +990,7 @@
         <v>391230.185990842</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>340784.033781165</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>289729.1120402931</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>278150.777453999</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>209949.079940449</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>42785.35664044904</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>7009.313632901045</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>31070.76997575704</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-3246.780124242956</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>4825.988386988044</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>98950.70428964305</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>84492.09798964305</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>98076.53478964305</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>92519.92026825705</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>89130.70017346204</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>97025.74507346204</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>159965.671247444</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>196607.574274401</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>197068.411890133</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>-5956703.26032202</v>
       </c>
       <c r="H731">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19424,7 +19424,7 @@
         <v>-6010147.47492202</v>
       </c>
       <c r="H732">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>-6010147.47492202</v>
       </c>
       <c r="H733">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>-6012249.27602202</v>
       </c>
       <c r="H734">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19502,7 +19502,7 @@
         <v>-5997314.857922019</v>
       </c>
       <c r="H735">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="736" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>-5997314.857922019</v>
       </c>
       <c r="H736">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>-6043015.575122019</v>
       </c>
       <c r="H740">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -20594,7 +20594,7 @@
         <v>-5831853.370704426</v>
       </c>
       <c r="H777">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="778" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>-5831853.370704426</v>
       </c>
       <c r="H779">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>-5854625.218404425</v>
       </c>
       <c r="H791">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>-5854604.730704425</v>
       </c>
       <c r="H792">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -22570,7 +22570,7 @@
         <v>-5880149.338039612</v>
       </c>
       <c r="H853">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>-5879686.277539613</v>
       </c>
       <c r="H854">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>-5879393.143439612</v>
       </c>
       <c r="H855">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>-5880607.465939612</v>
       </c>
       <c r="H856">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>-5880495.284039612</v>
       </c>
       <c r="H857">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>-5874093.876299163</v>
       </c>
       <c r="H859">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -22752,7 +22752,7 @@
         <v>-5874093.876299163</v>
       </c>
       <c r="H860">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="861" spans="1:8">
@@ -22778,7 +22778,7 @@
         <v>-5874093.876299163</v>
       </c>
       <c r="H861">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="862" spans="1:8">
@@ -23376,7 +23376,7 @@
         <v>-5880527.409499165</v>
       </c>
       <c r="H884">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="885" spans="1:8">
@@ -23402,7 +23402,7 @@
         <v>-5887275.730099165</v>
       </c>
       <c r="H885">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="886" spans="1:8">
@@ -23428,7 +23428,7 @@
         <v>-5886971.291899165</v>
       </c>
       <c r="H886">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="887" spans="1:8">
@@ -23454,7 +23454,7 @@
         <v>-5886945.291899165</v>
       </c>
       <c r="H887">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="888" spans="1:8">
@@ -23480,7 +23480,7 @@
         <v>-5886945.291899165</v>
       </c>
       <c r="H888">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="889" spans="1:8">
@@ -23506,7 +23506,7 @@
         <v>-5886853.435599165</v>
       </c>
       <c r="H889">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="890" spans="1:8">
@@ -23532,7 +23532,7 @@
         <v>-5886863.435599165</v>
       </c>
       <c r="H890">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="891" spans="1:8">
@@ -23558,7 +23558,7 @@
         <v>-5886863.435599165</v>
       </c>
       <c r="H891">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="892" spans="1:8">
@@ -23584,7 +23584,7 @@
         <v>-5888761.448999165</v>
       </c>
       <c r="H892">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="893" spans="1:8">
@@ -23610,7 +23610,7 @@
         <v>-5895753.588499164</v>
       </c>
       <c r="H893">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="894" spans="1:8">
@@ -24884,7 +24884,7 @@
         <v>-5937760.87405015</v>
       </c>
       <c r="H942">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="943" spans="1:8">
@@ -24910,7 +24910,7 @@
         <v>-5937829.17205015</v>
       </c>
       <c r="H943">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="944" spans="1:8">

--- a/pred_ohlcv/54_21/2019-11-01 DAD ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-01 DAD ohlcv.xlsx
@@ -574,7 +574,7 @@
         <v>93664.42549675994</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>144496.3797967599</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>185370.9724011999</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>206473.6694725079</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>203425.3041725079</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>212089.0170513399</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>231699.1278513399</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>273790.3404755919</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>303077.9837784909</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>287432.0561720789</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>254314.7313657549</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>265901.9068771729</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>265082.615777173</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>346558.707076724</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>398646.40788183</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -990,7 +990,7 @@
         <v>391230.185990842</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>340784.033781165</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>289729.1120402931</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>278150.777453999</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>209949.079940449</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>83267.58984044904</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-32269.94325955096</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>7009.313632901045</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>31070.76997575704</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-3246.780124242956</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>4825.988386988044</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>98950.70428964305</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>84492.09798964305</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>98076.53478964305</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>92519.92026825705</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>89130.70017346204</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>162267.290647444</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>200808.243647444</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>175119.055174401</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>196607.574274401</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>161112.104974401</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>188257.398174401</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>202974.533890133</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -22700,7 +22700,7 @@
         <v>-5874057.625799163</v>
       </c>
       <c r="H858">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -23454,7 +23454,7 @@
         <v>-5886945.291899165</v>
       </c>
       <c r="H887">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="888" spans="1:8">
@@ -23480,7 +23480,7 @@
         <v>-5886945.291899165</v>
       </c>
       <c r="H888">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="889" spans="1:8">
@@ -23506,7 +23506,7 @@
         <v>-5886853.435599165</v>
       </c>
       <c r="H889">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="890" spans="1:8">
@@ -23558,7 +23558,7 @@
         <v>-5886863.435599165</v>
       </c>
       <c r="H891">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="892" spans="1:8">
@@ -23584,7 +23584,7 @@
         <v>-5888761.448999165</v>
       </c>
       <c r="H892">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="893" spans="1:8">
@@ -23610,7 +23610,7 @@
         <v>-5895753.588499164</v>
       </c>
       <c r="H893">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="894" spans="1:8">
